--- a/Assets/Resources/ExcelConfigs/buff.xlsx
+++ b/Assets/Resources/ExcelConfigs/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>triggerProbability</t>
+  </si>
+  <si>
+    <t>onHit</t>
+  </si>
+  <si>
+    <t>onTick</t>
   </si>
   <si>
     <t>伤害加深</t>
@@ -64,14 +70,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,48 +528,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,97 +582,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
@@ -1047,7 +1046,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1071,14 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1098,16 +1103,22 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1123,6 +1134,9 @@
       </c>
       <c r="H3" s="1">
         <v>100</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelConfigs/buff.xlsx
+++ b/Assets/Resources/ExcelConfigs/buff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -54,10 +54,16 @@
     <t>onTick</t>
   </si>
   <si>
+    <t>property</t>
+  </si>
+  <si>
     <t>伤害加深</t>
   </si>
   <si>
     <t>攻击+30%</t>
+  </si>
+  <si>
+    <t>{"hp":10,"defend":5 }</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1043,10 +1049,12 @@
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="39.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,8 +1085,11 @@
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1109,16 +1120,19 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1136,7 +1150,10 @@
         <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
